--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 20202.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 20202.xlsx
@@ -127,18 +127,18 @@
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -247,16 +247,16 @@
     <t>DIEGO</t>
   </si>
   <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>MARITZA</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
     <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>MARITZA</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
   </si>
   <si>
     <t>ADAN</t>
@@ -1253,16 +1253,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>72.22</v>
+        <v>88.89</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1362,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920246</v>
+        <v>20330051920342</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -1693,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1701,13 +1701,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920342</v>
+        <v>20330051920356</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920356</v>
+        <v>20330051920093</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -1739,21 +1739,21 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920093</v>
+        <v>20330051920246</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>79</v>
@@ -1762,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>1</v>

--- a/docentes/González Altamirano Victorino Juventino - Estadisticos 20202.xlsx
+++ b/docentes/González Altamirano Victorino Juventino - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Mat</t>
   </si>
@@ -88,187 +88,121 @@
     <t>CANUTO</t>
   </si>
   <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>GUILLEN</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
     <t>MIXCOHA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>PAZ</t>
   </si>
   <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
     <t>MAZAHUA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>CRUZ</t>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>PALMA</t>
+    <t>VILLALBA</t>
   </si>
   <si>
     <t>PONCE</t>
   </si>
   <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>VILLALBA</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>ISRAEL</t>
   </si>
   <si>
-    <t>NORKYS AIRY</t>
-  </si>
-  <si>
     <t>LUIS ENRIQUE</t>
   </si>
   <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
     <t>DAVID</t>
   </si>
   <si>
     <t>DANIEL</t>
   </si>
   <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
     <t>OSVALDO</t>
   </si>
   <si>
     <t>GENARO RAFAEL</t>
   </si>
   <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
     <t>DIEGO</t>
   </si>
   <si>
-    <t>VICTOR MANUEL</t>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>ADAN</t>
   </si>
   <si>
     <t>MARITZA</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>ADAN</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
   </si>
 </sst>
 </file>
@@ -828,19 +762,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>63.89</v>
       </c>
       <c r="H8">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -948,19 +882,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1052,19 +986,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>36.11</v>
+        <v>61.11</v>
       </c>
       <c r="H8">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1175,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1276,19 +1210,19 @@
         <v>36</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
       <c r="F8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>69.44</v>
       </c>
       <c r="H8">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1339,10 +1273,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1356,16 +1290,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920074</v>
+        <v>20330051920080</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1379,16 +1313,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920080</v>
+        <v>20330051920084</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1402,16 +1336,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920081</v>
+        <v>20330051920089</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1425,16 +1359,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920084</v>
+        <v>20330051920092</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1448,16 +1382,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920087</v>
+        <v>20330051920059</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1471,16 +1405,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920089</v>
+        <v>20330051920070</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1494,22 +1428,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920090</v>
+        <v>20330051920236</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1517,22 +1451,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920092</v>
+        <v>20330051920342</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1540,16 +1474,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920059</v>
+        <v>20330051920093</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1558,305 +1492,98 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920063</v>
+        <v>20330051920240</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920065</v>
+        <v>20330051920246</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920070</v>
+        <v>20330051920337</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920236</v>
+        <v>20330051920356</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920240</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920342</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920356</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920093</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920246</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920337</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920263</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920381</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920347</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
         <v>1</v>
       </c>
     </row>
